--- a/biology/Zoologie/Hypolimnas_anthedon/Hypolimnas_anthedon.xlsx
+++ b/biology/Zoologie/Hypolimnas_anthedon/Hypolimnas_anthedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypolimnas anthedon est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Nymphalinae et du genre Hypolimnas.
 </t>
@@ -511,45 +523,119 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hypolimnas anthedon a été décrit par Doubleday en 1845 sous le nom de Diadema anthedon.
-Synonymes : Diadema damoclina Trimen, 1869; Papilio dubius Palisot de Beauvois, [1813-1830]; Hypolimnas dubius poensis Rothschild, 1918[1].
-Noms vernaculaires
-Hypolimnas anthedon se nomme en anglais Variable diadem ou Variable Eggfly.
-Sous-espèces
-Hypolimnas anthedon anthedon présent en Sierra Leone et au Kenya
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypolimnas anthedon a été décrit par Doubleday en 1845 sous le nom de Diadema anthedon.
+Synonymes : Diadema damoclina Trimen, 1869; Papilio dubius Palisot de Beauvois, [1813-1830]; Hypolimnas dubius poensis Rothschild, 1918.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hypolimnas anthedon se nomme en anglais Variable diadem ou Variable Eggfly.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hypolimnas anthedon anthedon présent en Sierra Leone et au Kenya
 Hypolimnas anthedon drucei (Butler, 1874) présent à Madagascar, aux Comores et à l'ile Maurice.
 Hypolimnas anthedon mayottensis présent à Mayotte.
 Hypolimnas anthedon wahlbergi (Wallengren, 1857) présent au Kenya et au Natal</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand papillon marron à noir orné de blanc à beige d'une envergure de 75 mm à 80 mm pour le mâle et de 74 mm à 90 mm pour la femelle. Les ailes antérieures sont noires marquées de taches blanches pouvant former une bande blanche alors que les ailes postérieures, blanches marquées de veines noires n'ont qu'une large bordure noire.
 Le revers des antérieures est marron avec des taches blanches organisées en lignes alors que le revers des postérieures est de totalement blanc à veines noires à blanc avec une bordure foncée plus ou moins large.
@@ -557,69 +643,146 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol
-Il vole toute l'année.
-Plantes hôtes
-Les plantes hôtes sont des Fleurya, Urera camerooensis, Urera camerooensis, Urtica, et Berkheya[2].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Fleurya, Urera camerooensis, Urera camerooensis, Urtica, et Berkheya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans le centre de l'Afrique, à Madagascar, aux Comores, à Mayotte et à l'ile Maurice[1]. 
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le centre de l'Afrique, à Madagascar, aux Comores, à Mayotte et à l'ile Maurice. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypolimnas_anthedon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
